--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Pspn</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.97575526298193</v>
+        <v>3.042572666666667</v>
       </c>
       <c r="H2">
-        <v>2.97575526298193</v>
+        <v>9.127718</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9827375016055572</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9827375016055572</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93205749282447</v>
+        <v>3.632885</v>
       </c>
       <c r="N2">
-        <v>2.93205749282447</v>
+        <v>10.898655</v>
       </c>
       <c r="O2">
-        <v>0.4024629767756694</v>
+        <v>0.4372849566404539</v>
       </c>
       <c r="P2">
-        <v>0.4024629767756694</v>
+        <v>0.4372849566404539</v>
       </c>
       <c r="Q2">
-        <v>8.725085515638019</v>
+        <v>11.05331660214333</v>
       </c>
       <c r="R2">
-        <v>8.725085515638019</v>
+        <v>99.47984941928999</v>
       </c>
       <c r="S2">
-        <v>0.4024629767756694</v>
+        <v>0.4297363257785341</v>
       </c>
       <c r="T2">
-        <v>0.4024629767756694</v>
+        <v>0.429736325778534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.97575526298193</v>
+        <v>3.042572666666667</v>
       </c>
       <c r="H3">
-        <v>2.97575526298193</v>
+        <v>9.127718</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9827375016055572</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9827375016055572</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.6982002747845</v>
+        <v>3.884996</v>
       </c>
       <c r="N3">
-        <v>3.6982002747845</v>
+        <v>11.654988</v>
       </c>
       <c r="O3">
-        <v>0.507626025391676</v>
+        <v>0.4676311822169809</v>
       </c>
       <c r="P3">
-        <v>0.507626025391676</v>
+        <v>0.4676311822169809</v>
       </c>
       <c r="Q3">
-        <v>11.00493893125119</v>
+        <v>11.82038263970933</v>
       </c>
       <c r="R3">
-        <v>11.00493893125119</v>
+        <v>106.383443757384</v>
       </c>
       <c r="S3">
-        <v>0.507626025391676</v>
+        <v>0.4595586996847689</v>
       </c>
       <c r="T3">
-        <v>0.507626025391676</v>
+        <v>0.4595586996847689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.042572666666667</v>
+      </c>
+      <c r="H4">
+        <v>9.127718</v>
+      </c>
+      <c r="I4">
+        <v>0.9827375016055572</v>
+      </c>
+      <c r="J4">
+        <v>0.9827375016055572</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.004340666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.013022</v>
+      </c>
+      <c r="O4">
+        <v>0.0005224795816889323</v>
+      </c>
+      <c r="P4">
+        <v>0.0005224795816889323</v>
+      </c>
+      <c r="Q4">
+        <v>0.01320679375511111</v>
+      </c>
+      <c r="R4">
+        <v>0.118861143796</v>
+      </c>
+      <c r="S4">
+        <v>0.000513460278748898</v>
+      </c>
+      <c r="T4">
+        <v>0.000513460278748898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.042572666666667</v>
+      </c>
+      <c r="H5">
+        <v>9.127718</v>
+      </c>
+      <c r="I5">
+        <v>0.9827375016055572</v>
+      </c>
+      <c r="J5">
+        <v>0.9827375016055572</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7855989999999999</v>
+      </c>
+      <c r="N5">
+        <v>2.356797</v>
+      </c>
+      <c r="O5">
+        <v>0.09456138156087625</v>
+      </c>
+      <c r="P5">
+        <v>0.09456138156087625</v>
+      </c>
+      <c r="Q5">
+        <v>2.390242044360666</v>
+      </c>
+      <c r="R5">
+        <v>21.512178399246</v>
+      </c>
+      <c r="S5">
+        <v>0.09292901586350533</v>
+      </c>
+      <c r="T5">
+        <v>0.09292901586350533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.97575526298193</v>
-      </c>
-      <c r="H4">
-        <v>2.97575526298193</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.655027244976877</v>
-      </c>
-      <c r="N4">
-        <v>0.655027244976877</v>
-      </c>
-      <c r="O4">
-        <v>0.08991099783265459</v>
-      </c>
-      <c r="P4">
-        <v>0.08991099783265459</v>
-      </c>
-      <c r="Q4">
-        <v>1.949200771636496</v>
-      </c>
-      <c r="R4">
-        <v>1.949200771636496</v>
-      </c>
-      <c r="S4">
-        <v>0.08991099783265459</v>
-      </c>
-      <c r="T4">
-        <v>0.08991099783265459</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.053445</v>
+      </c>
+      <c r="H6">
+        <v>0.160335</v>
+      </c>
+      <c r="I6">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="J6">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.632885</v>
+      </c>
+      <c r="N6">
+        <v>10.898655</v>
+      </c>
+      <c r="O6">
+        <v>0.4372849566404539</v>
+      </c>
+      <c r="P6">
+        <v>0.4372849566404539</v>
+      </c>
+      <c r="Q6">
+        <v>0.194159538825</v>
+      </c>
+      <c r="R6">
+        <v>1.747435849425</v>
+      </c>
+      <c r="S6">
+        <v>0.007548630861919843</v>
+      </c>
+      <c r="T6">
+        <v>0.007548630861919842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.053445</v>
+      </c>
+      <c r="H7">
+        <v>0.160335</v>
+      </c>
+      <c r="I7">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="J7">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.884996</v>
+      </c>
+      <c r="N7">
+        <v>11.654988</v>
+      </c>
+      <c r="O7">
+        <v>0.4676311822169809</v>
+      </c>
+      <c r="P7">
+        <v>0.4676311822169809</v>
+      </c>
+      <c r="Q7">
+        <v>0.20763361122</v>
+      </c>
+      <c r="R7">
+        <v>1.86870250098</v>
+      </c>
+      <c r="S7">
+        <v>0.008072482532212041</v>
+      </c>
+      <c r="T7">
+        <v>0.008072482532212041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.053445</v>
+      </c>
+      <c r="H8">
+        <v>0.160335</v>
+      </c>
+      <c r="I8">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="J8">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.004340666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.013022</v>
+      </c>
+      <c r="O8">
+        <v>0.0005224795816889323</v>
+      </c>
+      <c r="P8">
+        <v>0.0005224795816889323</v>
+      </c>
+      <c r="Q8">
+        <v>0.00023198693</v>
+      </c>
+      <c r="R8">
+        <v>0.00208788237</v>
+      </c>
+      <c r="S8">
+        <v>9.019302940034362E-06</v>
+      </c>
+      <c r="T8">
+        <v>9.019302940034362E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.053445</v>
+      </c>
+      <c r="H9">
+        <v>0.160335</v>
+      </c>
+      <c r="I9">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="J9">
+        <v>0.01726249839444284</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7855989999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.356797</v>
+      </c>
+      <c r="O9">
+        <v>0.09456138156087625</v>
+      </c>
+      <c r="P9">
+        <v>0.09456138156087625</v>
+      </c>
+      <c r="Q9">
+        <v>0.041986338555</v>
+      </c>
+      <c r="R9">
+        <v>0.377877046995</v>
+      </c>
+      <c r="S9">
+        <v>0.001632365697370923</v>
+      </c>
+      <c r="T9">
+        <v>0.001632365697370923</v>
       </c>
     </row>
   </sheetData>
